--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_320__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_320__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5423,13 +5423,13 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.24210357666016</c:v>
+                  <c:v>50.24212646484375</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.55418395996094</c:v>
+                  <c:v>91.55415344238281</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>79.71643829345703</c:v>
@@ -5441,13 +5441,13 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.89749145507812</c:v>
+                  <c:v>92.89749908447266</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.67292022705078</c:v>
+                  <c:v>93.67293548583984</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.03841270133852959</c:v>
@@ -5456,16 +5456,16 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>79.75701904296875</c:v>
+                  <c:v>79.75702667236328</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94.53746795654297</c:v>
+                  <c:v>94.53746032714844</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>78.74349212646484</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>71.75531768798828</c:v>
+                  <c:v>71.75533294677734</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>93.63817596435547</c:v>
@@ -5474,10 +5474,10 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>108.3736038208008</c:v>
+                  <c:v>108.3735809326172</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.853449821472168</c:v>
+                  <c:v>8.853448867797852</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>90.12419891357422</c:v>
@@ -5507,7 +5507,7 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>93.9197998046875</c:v>
+                  <c:v>93.91982269287109</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>94.78740692138672</c:v>
@@ -5522,19 +5522,19 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>91.65689086914062</c:v>
+                  <c:v>91.65688323974609</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>87.47187042236328</c:v>
+                  <c:v>87.47183990478516</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>73.85220336914062</c:v>
+                  <c:v>73.85218811035156</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.42703247070312</c:v>
+                  <c:v>40.42702865600586</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>95.01203155517578</c:v>
@@ -5543,7 +5543,7 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>89.93497467041016</c:v>
+                  <c:v>89.93496704101562</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>94.96849060058594</c:v>
@@ -5555,7 +5555,7 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94.07102966308594</c:v>
+                  <c:v>94.07110595703125</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.03841270133852959</c:v>
@@ -5573,10 +5573,10 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>94.87340545654297</c:v>
+                  <c:v>94.8734130859375</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>91.41032409667969</c:v>
+                  <c:v>91.41031646728516</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>90.82157135009766</c:v>
@@ -5585,7 +5585,7 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>91.75294494628906</c:v>
+                  <c:v>91.75290679931641</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>90.87344360351562</c:v>
@@ -5603,52 +5603,52 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>38.83762741088867</c:v>
+                  <c:v>38.83762359619141</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>89.34444427490234</c:v>
+                  <c:v>89.34442138671875</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>82.31952667236328</c:v>
+                  <c:v>82.31951904296875</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>93.65126800537109</c:v>
+                  <c:v>93.65127563476562</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>96.88775634765625</c:v>
+                  <c:v>96.88776397705078</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>93.93877410888672</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>91.38133239746094</c:v>
+                  <c:v>91.38136291503906</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>89.85839080810547</c:v>
+                  <c:v>89.85841369628906</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>93.84590148925781</c:v>
+                  <c:v>93.84589385986328</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>97.08055877685547</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>85.16033172607422</c:v>
+                  <c:v>85.16031646728516</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>88.73710632324219</c:v>
+                  <c:v>88.73708343505859</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.03841270133852959</c:v>
@@ -5666,10 +5666,10 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.796099662780762</c:v>
+                  <c:v>2.796098947525024</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>94.49809265136719</c:v>
+                  <c:v>94.49808502197266</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.03841270133852959</c:v>
@@ -5678,13 +5678,13 @@
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>93.76293182373047</c:v>
+                  <c:v>93.76290893554688</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>0.03841270133852959</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>92.18080902099609</c:v>
+                  <c:v>92.18085479736328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>50.24210357666016</v>
+        <v>50.24212646484375</v>
       </c>
       <c r="G4">
         <v>109</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>91.55418395996094</v>
+        <v>91.55415344238281</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>92.89749145507812</v>
+        <v>92.89749908447266</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>93.67292022705078</v>
+        <v>93.67293548583984</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>79.75701904296875</v>
+        <v>79.75702667236328</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>94.53746795654297</v>
+        <v>94.53746032714844</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>63.9475</v>
       </c>
       <c r="F18">
-        <v>71.75531768798828</v>
+        <v>71.75533294677734</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>98.4349</v>
       </c>
       <c r="F21">
-        <v>108.3736038208008</v>
+        <v>108.3735809326172</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>8.853449821472168</v>
+        <v>8.853448867797852</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>93.9197998046875</v>
+        <v>93.91982269287109</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>91.65689086914062</v>
+        <v>91.65688323974609</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>87.47187042236328</v>
+        <v>87.47183990478516</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>73.85220336914062</v>
+        <v>73.85218811035156</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>40.42703247070312</v>
+        <v>40.42702865600586</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>89.93497467041016</v>
+        <v>89.93496704101562</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>96.9224</v>
       </c>
       <c r="F48">
-        <v>94.07102966308594</v>
+        <v>94.07110595703125</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>94.87340545654297</v>
+        <v>94.8734130859375</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>91.41032409667969</v>
+        <v>91.41031646728516</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>91.75294494628906</v>
+        <v>91.75290679931641</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>38.83762741088867</v>
+        <v>38.83762359619141</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.69540000000001</v>
       </c>
       <c r="F66">
-        <v>89.34444427490234</v>
+        <v>89.34442138671875</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>82.31952667236328</v>
+        <v>82.31951904296875</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>93.65126800537109</v>
+        <v>93.65127563476562</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>98.4734</v>
       </c>
       <c r="F71">
-        <v>96.88775634765625</v>
+        <v>96.88776397705078</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>91.38133239746094</v>
+        <v>91.38136291503906</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>66.9032</v>
       </c>
       <c r="F74">
-        <v>89.85839080810547</v>
+        <v>89.85841369628906</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>93.84590148925781</v>
+        <v>93.84589385986328</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>79.8989</v>
       </c>
       <c r="F78">
-        <v>85.16033172607422</v>
+        <v>85.16031646728516</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>88.73710632324219</v>
+        <v>88.73708343505859</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>2.796099662780762</v>
+        <v>2.796098947525024</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>95.40600000000001</v>
       </c>
       <c r="F86">
-        <v>94.49809265136719</v>
+        <v>94.49808502197266</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>93.76293182373047</v>
+        <v>93.76290893554688</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>92.18080902099609</v>
+        <v>92.18085479736328</v>
       </c>
     </row>
     <row r="92" spans="1:6">
